--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/barbados_rawdata.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/barbados_rawdata.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Wi2050\SDG Financing Simplified model (Egypt)\v4_commented and cleaned - for calibration\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EC6E43-9E98-462B-B0E7-8550ADA1609E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17930" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age5yr" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,22 @@
     <sheet name="edattainf" sheetId="7" r:id="rId7"/>
     <sheet name="index" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
   <si>
     <t>male</t>
   </si>
@@ -110,9 +126,6 @@
     <t>fhic</t>
   </si>
   <si>
-    <t>s0shf</t>
-  </si>
-  <si>
     <t>ps</t>
   </si>
   <si>
@@ -123,9 +136,6 @@
   </si>
   <si>
     <t>ts</t>
-  </si>
-  <si>
-    <t>s0shm</t>
   </si>
   <si>
     <t>no</t>
@@ -211,19 +221,18 @@
   <si>
     <t>edattainm!a1</t>
   </si>
+  <si>
+    <t>s0sh</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -274,353 +283,16 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -628,251 +300,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -900,63 +330,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1154,24 +540,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="10.5583333333333" customWidth="1"/>
+    <col min="1" max="26" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="2:3">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1179,18 +563,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:3">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="10">
-        <v>7.686</v>
+        <v>7.6859999999999999</v>
       </c>
       <c r="C2" s="10">
-        <v>7.434</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:3">
+        <v>7.4340000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1198,10 +582,10 @@
         <v>7.875</v>
       </c>
       <c r="C3" s="10">
-        <v>7.623</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:3">
+        <v>7.6230000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1209,32 +593,32 @@
         <v>8.923</v>
       </c>
       <c r="C4" s="10">
-        <v>8.624</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:3">
+        <v>8.6240000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="10">
-        <v>9.747</v>
+        <v>9.7469999999999999</v>
       </c>
       <c r="C5" s="10">
         <v>9.218</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:3">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="10">
-        <v>9.539</v>
+        <v>9.5389999999999997</v>
       </c>
       <c r="C6" s="10">
         <v>9.23</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:3">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1242,87 +626,87 @@
         <v>9.407</v>
       </c>
       <c r="C7" s="10">
-        <v>9.402</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:3">
+        <v>9.4019999999999992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="10">
-        <v>9.015</v>
+        <v>9.0150000000000006</v>
       </c>
       <c r="C8" s="10">
-        <v>9.086</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:3">
+        <v>9.0860000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="10">
-        <v>9.274</v>
+        <v>9.2739999999999991</v>
       </c>
       <c r="C9" s="10">
-        <v>9.749</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:3">
+        <v>9.7490000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="10">
-        <v>9.22</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="C10" s="10">
-        <v>9.584</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" spans="1:3">
+        <v>9.5839999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="10">
-        <v>9.748</v>
+        <v>9.7479999999999993</v>
       </c>
       <c r="C11" s="10">
-        <v>10.515</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" spans="1:3">
+        <v>10.515000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="10">
-        <v>9.394</v>
+        <v>9.3940000000000001</v>
       </c>
       <c r="C12" s="10">
         <v>10.241</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:3">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="10">
-        <v>9.453</v>
+        <v>9.4529999999999994</v>
       </c>
       <c r="C13" s="10">
-        <v>10.848</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" spans="1:3">
+        <v>10.848000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="10">
-        <v>8.54</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="C14" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1" spans="1:3">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -1333,29 +717,29 @@
         <v>8.093</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1" spans="1:3">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="10">
-        <v>5.482</v>
+        <v>5.4820000000000002</v>
       </c>
       <c r="C16" s="10">
         <v>6.407</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" spans="1:3">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="10">
-        <v>3.576</v>
+        <v>3.5760000000000001</v>
       </c>
       <c r="C17" s="10">
-        <v>4.689</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1" spans="1:3">
+        <v>4.6890000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -1366,7 +750,7 @@
         <v>3.508</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1" spans="1:3">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -1374,52 +758,52 @@
         <v>1.518</v>
       </c>
       <c r="C19" s="10">
-        <v>2.252</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1" spans="1:3">
+        <v>2.2519999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="10">
-        <v>0.769</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="C20" s="10">
         <v>1.248</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1" spans="1:3">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="10">
-        <v>0.284</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="C21" s="10">
-        <v>0.425</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1" spans="1:3">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="10">
-        <v>0.093</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="C22" s="10">
         <v>0.111</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -2389,28 +1773,24 @@
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.5583333333333" customWidth="1"/>
-    <col min="2" max="2" width="13.1083333333333" customWidth="1"/>
-    <col min="3" max="26" width="10.5583333333333" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" customWidth="1"/>
+    <col min="3" max="26" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="2:3">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="B1" s="9" t="s">
         <v>23</v>
       </c>
@@ -2418,7 +1798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:3">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2426,10 +1806,10 @@
         <v>21.5</v>
       </c>
       <c r="C2" s="11">
-        <v>12.3034016601603</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:3">
+        <v>12.303401660160301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -2437,10 +1817,10 @@
         <v>59.4</v>
       </c>
       <c r="C3" s="11">
-        <v>45.5932105911354</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:3">
+        <v>45.593210591135403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -2448,10 +1828,10 @@
         <v>81.8</v>
       </c>
       <c r="C4" s="11">
-        <v>87.9539333517565</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:3">
+        <v>87.953933351756504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -2462,7 +1842,7 @@
         <v>107.318717911465</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:3">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -2470,10 +1850,10 @@
         <v>61.1</v>
       </c>
       <c r="C6" s="11">
-        <v>64.6720968737279</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:3">
+        <v>64.672096873727895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
@@ -2481,10 +1861,10 @@
         <v>17</v>
       </c>
       <c r="C7" s="11">
-        <v>15.4047684335841</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:3">
+        <v>15.404768433584101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -2492,19 +1872,19 @@
         <v>2.4</v>
       </c>
       <c r="C8" s="11">
-        <v>1.43004733583908</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" spans="3:3">
+        <v>1.4300473358390799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="C9" s="11"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -3489,26 +2869,22 @@
     <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="10.5583333333333" customWidth="1"/>
+    <col min="1" max="26" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="2:5">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="B1" s="9" t="s">
         <v>25</v>
       </c>
@@ -3522,7 +2898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3533,13 +2909,13 @@
         <v>99169.1</v>
       </c>
       <c r="D2" s="6">
-        <v>99558.4662776319</v>
+        <v>99558.466277631902</v>
       </c>
       <c r="E2" s="6">
-        <v>99623.0063930079</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:5">
+        <v>99623.006393007905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="6">
         <v>5</v>
       </c>
@@ -3550,13 +2926,13 @@
         <v>98994.71</v>
       </c>
       <c r="D3" s="6">
-        <v>99454.210915998</v>
+        <v>99454.210915998003</v>
       </c>
       <c r="E3" s="6">
-        <v>99533.1184185677</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:5">
+        <v>99533.118418567698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="6">
         <v>10</v>
       </c>
@@ -3570,10 +2946,10 @@
         <v>99394.4514595152</v>
       </c>
       <c r="E4" s="6">
-        <v>99481.1646026676</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:5">
+        <v>99481.164602667603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="6">
         <v>15</v>
       </c>
@@ -3584,13 +2960,13 @@
         <v>98777.19</v>
       </c>
       <c r="D5" s="6">
-        <v>99310.5473896343</v>
+        <v>99310.547389634303</v>
       </c>
       <c r="E5" s="6">
-        <v>99425.2312564958</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:5">
+        <v>99425.231256495797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="6">
         <v>20</v>
       </c>
@@ -3601,13 +2977,13 @@
         <v>98569.87</v>
       </c>
       <c r="D6" s="6">
-        <v>99092.4639638649</v>
+        <v>99092.463963864895</v>
       </c>
       <c r="E6" s="6">
-        <v>99328.8908378178</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:5">
+        <v>99328.890837817802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="6">
         <v>25</v>
       </c>
@@ -3621,10 +2997,10 @@
         <v>98706.3112918228</v>
       </c>
       <c r="E7" s="6">
-        <v>99180.6433619081</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:5">
+        <v>99180.643361908107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="6">
         <v>30</v>
       </c>
@@ -3638,10 +3014,10 @@
         <v>98225.6141636705</v>
       </c>
       <c r="E8" s="6">
-        <v>98981.0079860987</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:5">
+        <v>98981.007986098703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="6">
         <v>35</v>
       </c>
@@ -3652,13 +3028,13 @@
         <v>97634.95</v>
       </c>
       <c r="D9" s="6">
-        <v>97690.2460909222</v>
+        <v>97690.246090922199</v>
       </c>
       <c r="E9" s="6">
-        <v>98718.991690509</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:5">
+        <v>98718.991690509007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="6">
         <v>40</v>
       </c>
@@ -3669,13 +3045,13 @@
         <v>97071.12</v>
       </c>
       <c r="D10" s="6">
-        <v>97047.3653193127</v>
+        <v>97047.365319312696</v>
       </c>
       <c r="E10" s="6">
-        <v>98363.8473817856</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" spans="1:5">
+        <v>98363.847381785599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="6">
         <v>45</v>
       </c>
@@ -3686,13 +3062,13 @@
         <v>96215.96</v>
       </c>
       <c r="D11" s="6">
-        <v>96163.9727108916</v>
+        <v>96163.972710891598</v>
       </c>
       <c r="E11" s="6">
-        <v>97844.6675307386</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" spans="1:5">
+        <v>97844.667530738603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="6">
         <v>50</v>
       </c>
@@ -3703,13 +3079,13 @@
         <v>94893.15</v>
       </c>
       <c r="D12" s="6">
-        <v>94837.501492148</v>
+        <v>94837.501492148003</v>
       </c>
       <c r="E12" s="6">
-        <v>97050.3775135251</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:5">
+        <v>97050.377513525105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="6">
         <v>55</v>
       </c>
@@ -3720,13 +3096,13 @@
         <v>92912.06</v>
       </c>
       <c r="D13" s="6">
-        <v>92779.747789658</v>
+        <v>92779.747789657995</v>
       </c>
       <c r="E13" s="6">
-        <v>95842.8064558969</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" spans="1:5">
+        <v>95842.806455896905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="6">
         <v>60</v>
       </c>
@@ -3737,13 +3113,13 @@
         <v>89996.23</v>
       </c>
       <c r="D14" s="6">
-        <v>89628.3819520735</v>
+        <v>89628.381952073498</v>
       </c>
       <c r="E14" s="6">
-        <v>94043.1256093588</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1" spans="1:5">
+        <v>94043.125609358802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="6">
         <v>65</v>
       </c>
@@ -3754,13 +3130,13 @@
         <v>86390.31</v>
       </c>
       <c r="D15" s="6">
-        <v>85020.5238482083</v>
+        <v>85020.523848208293</v>
       </c>
       <c r="E15" s="6">
-        <v>91404.9522708399</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1" spans="1:5">
+        <v>91404.952270839902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="6">
         <v>70</v>
       </c>
@@ -3771,30 +3147,30 @@
         <v>81970.27</v>
       </c>
       <c r="D16" s="6">
-        <v>78830.5019367089</v>
+        <v>78830.501936708897</v>
       </c>
       <c r="E16" s="6">
-        <v>87727.5718043054</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1" spans="1:5">
+        <v>87727.571804305393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="6">
         <v>75</v>
       </c>
       <c r="B17" s="10">
-        <v>68439.6</v>
+        <v>68439.600000000006</v>
       </c>
       <c r="C17" s="10">
         <v>75560.59</v>
       </c>
       <c r="D17" s="6">
-        <v>69972.6984654897</v>
+        <v>69972.698465489695</v>
       </c>
       <c r="E17" s="6">
-        <v>81920.9520650037</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1" spans="1:5">
+        <v>81920.952065003701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="6">
         <v>80</v>
       </c>
@@ -3805,13 +3181,13 @@
         <v>64951.62</v>
       </c>
       <c r="D18" s="6">
-        <v>57088.6391782002</v>
+        <v>57088.639178200203</v>
       </c>
       <c r="E18" s="6">
-        <v>72162.8292947842</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1" spans="1:5">
+        <v>72162.829294784198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="6">
         <v>85</v>
       </c>
@@ -3828,7 +3204,7 @@
         <v>57193.1158821754</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" spans="1:5">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="6">
         <v>90</v>
       </c>
@@ -3839,13 +3215,13 @@
         <v>30332.43</v>
       </c>
       <c r="D20" s="6">
-        <v>22974.1725048295</v>
+        <v>22974.172504829501</v>
       </c>
       <c r="E20" s="6">
-        <v>37636.6254002739</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" spans="1:5">
+        <v>37636.625400273901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="6">
         <v>95</v>
       </c>
@@ -3856,13 +3232,13 @@
         <v>13768.99</v>
       </c>
       <c r="D21" s="6">
-        <v>9264.34435747396</v>
+        <v>9264.3443574739595</v>
       </c>
       <c r="E21" s="6">
-        <v>18137.7024147346</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1" spans="1:5">
+        <v>18137.702414734598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="6">
         <v>100</v>
       </c>
@@ -3873,22 +3249,22 @@
         <v>4084.16</v>
       </c>
       <c r="D22" s="6">
-        <v>2308.82146574295</v>
+        <v>2308.8214657429498</v>
       </c>
       <c r="E22" s="6">
-        <v>5401.16446593289</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+        <v>5401.1644659328904</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -4858,48 +4234,46 @@
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="10.5583333333333" customWidth="1"/>
+    <col min="1" max="26" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="2:6">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="B1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:6">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="8">
         <v>6</v>
       </c>
       <c r="B2" s="6">
-        <v>96.65474</v>
+        <v>96.654740000000004</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -4914,12 +4288,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="8">
         <v>7</v>
       </c>
       <c r="B3" s="6">
-        <v>96.65474</v>
+        <v>96.654740000000004</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
@@ -4934,12 +4308,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="8">
         <v>8</v>
       </c>
       <c r="B4" s="6">
-        <v>96.65474</v>
+        <v>96.654740000000004</v>
       </c>
       <c r="C4" s="6">
         <v>0</v>
@@ -4954,12 +4328,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="8">
         <v>9</v>
       </c>
       <c r="B5" s="6">
-        <v>96.65474</v>
+        <v>96.654740000000004</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
@@ -4974,12 +4348,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="8">
         <v>10</v>
       </c>
       <c r="B6" s="6">
-        <v>96.65474</v>
+        <v>96.654740000000004</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
@@ -4994,15 +4368,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:6">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="8">
         <v>11</v>
       </c>
       <c r="B7" s="6">
-        <v>96.25709</v>
+        <v>96.257090000000005</v>
       </c>
       <c r="C7" s="6">
-        <v>96.65474</v>
+        <v>96.654740000000004</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
@@ -5014,15 +4388,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:6">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="8">
         <v>12</v>
       </c>
       <c r="B8" s="6">
-        <v>96.25709</v>
+        <v>96.257090000000005</v>
       </c>
       <c r="C8" s="6">
-        <v>96.65474</v>
+        <v>96.654740000000004</v>
       </c>
       <c r="D8" s="6">
         <v>0</v>
@@ -5034,15 +4408,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:6">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="8">
         <v>13</v>
       </c>
       <c r="B9" s="6">
-        <v>96.25709</v>
+        <v>96.257090000000005</v>
       </c>
       <c r="C9" s="6">
-        <v>96.65474</v>
+        <v>96.654740000000004</v>
       </c>
       <c r="D9" s="6">
         <v>0</v>
@@ -5054,18 +4428,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:6">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="8">
         <v>14</v>
       </c>
       <c r="B10" s="6">
-        <v>95.75923</v>
+        <v>95.759230000000002</v>
       </c>
       <c r="C10" s="6">
         <v>0.39765</v>
       </c>
       <c r="D10" s="6">
-        <v>96.25709</v>
+        <v>96.257090000000005</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
@@ -5074,18 +4448,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" spans="1:6">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="8">
         <v>15</v>
       </c>
       <c r="B11" s="6">
-        <v>95.75923</v>
+        <v>95.759230000000002</v>
       </c>
       <c r="C11" s="6">
         <v>0.39765</v>
       </c>
       <c r="D11" s="6">
-        <v>96.25709</v>
+        <v>96.257090000000005</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
@@ -5094,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1" spans="1:6">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="8">
         <v>16</v>
       </c>
@@ -5105,16 +4479,16 @@
         <v>0.39765</v>
       </c>
       <c r="D12" s="6">
-        <v>0.49786</v>
+        <v>0.49786000000000002</v>
       </c>
       <c r="E12" s="6">
-        <v>95.75923</v>
+        <v>95.759230000000002</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:6">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="8">
         <v>17</v>
       </c>
@@ -5125,16 +4499,16 @@
         <v>0.39765</v>
       </c>
       <c r="D13" s="6">
-        <v>0.49786</v>
+        <v>0.49786000000000002</v>
       </c>
       <c r="E13" s="6">
-        <v>95.75923</v>
+        <v>95.759230000000002</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1" spans="1:6">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="8">
         <v>18</v>
       </c>
@@ -5145,16 +4519,16 @@
         <v>0.39765</v>
       </c>
       <c r="D14" s="6">
-        <v>0.49786</v>
+        <v>0.49786000000000002</v>
       </c>
       <c r="E14" s="6">
-        <v>95.75923</v>
+        <v>95.759230000000002</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1" spans="1:6">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="8">
         <v>19</v>
       </c>
@@ -5165,16 +4539,16 @@
         <v>0.39765</v>
       </c>
       <c r="D15" s="6">
-        <v>0.49786</v>
+        <v>0.49786000000000002</v>
       </c>
       <c r="E15" s="6">
-        <v>95.75923</v>
+        <v>95.759230000000002</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1" spans="1:6">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="8">
         <v>20</v>
       </c>
@@ -5185,16 +4559,16 @@
         <v>0.39765</v>
       </c>
       <c r="D16" s="6">
-        <v>0.49786</v>
+        <v>0.49786000000000002</v>
       </c>
       <c r="E16" s="6">
-        <v>95.75923</v>
+        <v>95.759230000000002</v>
       </c>
       <c r="F16" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" spans="1:6">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="8">
         <v>21</v>
       </c>
@@ -5205,16 +4579,16 @@
         <v>0.39765</v>
       </c>
       <c r="D17" s="6">
-        <v>0.49786</v>
+        <v>0.49786000000000002</v>
       </c>
       <c r="E17" s="6">
-        <v>53.75608</v>
+        <v>53.756079999999997</v>
       </c>
       <c r="F17" s="6">
-        <v>42.00315</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1" spans="1:6">
+        <v>42.003149999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="8">
         <v>22</v>
       </c>
@@ -5225,16 +4599,16 @@
         <v>0.39765</v>
       </c>
       <c r="D18" s="6">
-        <v>0.49786</v>
+        <v>0.49786000000000002</v>
       </c>
       <c r="E18" s="6">
-        <v>53.75608</v>
+        <v>53.756079999999997</v>
       </c>
       <c r="F18" s="6">
-        <v>42.00315</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1" spans="1:6">
+        <v>42.003149999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="8">
         <v>23</v>
       </c>
@@ -5245,16 +4619,16 @@
         <v>0.39765</v>
       </c>
       <c r="D19" s="6">
-        <v>0.49786</v>
+        <v>0.49786000000000002</v>
       </c>
       <c r="E19" s="6">
-        <v>53.75608</v>
+        <v>53.756079999999997</v>
       </c>
       <c r="F19" s="6">
-        <v>42.00315</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1" spans="1:6">
+        <v>42.003149999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="8">
         <v>24</v>
       </c>
@@ -5265,27 +4639,27 @@
         <v>0.39765</v>
       </c>
       <c r="D20" s="6">
-        <v>0.49786</v>
+        <v>0.49786000000000002</v>
       </c>
       <c r="E20" s="6">
-        <v>53.75608</v>
+        <v>53.756079999999997</v>
       </c>
       <c r="F20" s="6">
-        <v>42.00315</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+        <v>42.003149999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -6256,47 +5630,46 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1" customHeight="1" spans="2:6">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
       <c r="B1" s="6" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:6">
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
       <c r="A2" s="6">
         <v>6</v>
       </c>
       <c r="B2" s="6">
-        <v>98.02101</v>
+        <v>98.021010000000004</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -6311,12 +5684,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" s="6">
         <v>7</v>
       </c>
       <c r="B3" s="6">
-        <v>98.02101</v>
+        <v>98.021010000000004</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
@@ -6331,12 +5704,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" s="6">
         <v>8</v>
       </c>
       <c r="B4" s="6">
-        <v>98.02101</v>
+        <v>98.021010000000004</v>
       </c>
       <c r="C4" s="6">
         <v>0</v>
@@ -6351,12 +5724,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="6">
         <v>9</v>
       </c>
       <c r="B5" s="6">
-        <v>98.02101</v>
+        <v>98.021010000000004</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
@@ -6371,12 +5744,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="6">
         <v>10</v>
       </c>
       <c r="B6" s="6">
-        <v>98.02101</v>
+        <v>98.021010000000004</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
@@ -6391,15 +5764,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:6">
+    <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="6">
         <v>11</v>
       </c>
       <c r="B7" s="6">
-        <v>96.41362</v>
+        <v>96.413619999999995</v>
       </c>
       <c r="C7" s="6">
-        <v>98.02101</v>
+        <v>98.021010000000004</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
@@ -6411,15 +5784,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:6">
+    <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="6">
         <v>12</v>
       </c>
       <c r="B8" s="6">
-        <v>96.41362</v>
+        <v>96.413619999999995</v>
       </c>
       <c r="C8" s="6">
-        <v>98.02101</v>
+        <v>98.021010000000004</v>
       </c>
       <c r="D8" s="6">
         <v>0</v>
@@ -6431,15 +5804,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:6">
+    <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="6">
         <v>13</v>
       </c>
       <c r="B9" s="6">
-        <v>96.41362</v>
+        <v>96.413619999999995</v>
       </c>
       <c r="C9" s="6">
-        <v>98.02101</v>
+        <v>98.021010000000004</v>
       </c>
       <c r="D9" s="6">
         <v>0</v>
@@ -6451,18 +5824,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:6">
+    <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="6">
         <v>14</v>
       </c>
       <c r="B10" s="6">
-        <v>92.0964</v>
+        <v>92.096400000000003</v>
       </c>
       <c r="C10" s="6">
-        <v>1.60739</v>
+        <v>1.6073900000000001</v>
       </c>
       <c r="D10" s="6">
-        <v>96.41362</v>
+        <v>96.413619999999995</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
@@ -6471,18 +5844,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:6">
+    <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" s="6">
         <v>15</v>
       </c>
       <c r="B11" s="6">
-        <v>92.0964</v>
+        <v>92.096400000000003</v>
       </c>
       <c r="C11" s="6">
-        <v>1.60739</v>
+        <v>1.6073900000000001</v>
       </c>
       <c r="D11" s="6">
-        <v>96.41362</v>
+        <v>96.413619999999995</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
@@ -6491,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:6">
+    <row r="12" spans="1:6" ht="15" customHeight="1">
       <c r="A12" s="6">
         <v>16</v>
       </c>
@@ -6499,10 +5872,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="6">
-        <v>1.60739</v>
+        <v>1.6073900000000001</v>
       </c>
       <c r="D12" s="6">
-        <v>96.41362</v>
+        <v>96.413619999999995</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
@@ -6511,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:6">
+    <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="6">
         <v>17</v>
       </c>
@@ -6519,19 +5892,19 @@
         <v>40</v>
       </c>
       <c r="C13" s="6">
-        <v>1.60739</v>
+        <v>1.6073900000000001</v>
       </c>
       <c r="D13" s="6">
-        <v>4.31722</v>
+        <v>4.3172199999999998</v>
       </c>
       <c r="E13" s="6">
-        <v>92.0964</v>
+        <v>92.096400000000003</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:6">
+    <row r="14" spans="1:6" ht="15" customHeight="1">
       <c r="A14" s="6">
         <v>18</v>
       </c>
@@ -6539,19 +5912,19 @@
         <v>40</v>
       </c>
       <c r="C14" s="6">
-        <v>1.60739</v>
+        <v>1.6073900000000001</v>
       </c>
       <c r="D14" s="6">
-        <v>4.31722</v>
+        <v>4.3172199999999998</v>
       </c>
       <c r="E14" s="6">
-        <v>92.0964</v>
+        <v>92.096400000000003</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:6">
+    <row r="15" spans="1:6" ht="15" customHeight="1">
       <c r="A15" s="6">
         <v>19</v>
       </c>
@@ -6559,19 +5932,19 @@
         <v>40</v>
       </c>
       <c r="C15" s="6">
-        <v>1.60739</v>
+        <v>1.6073900000000001</v>
       </c>
       <c r="D15" s="6">
-        <v>4.31722</v>
+        <v>4.3172199999999998</v>
       </c>
       <c r="E15" s="6">
-        <v>92.0964</v>
+        <v>92.096400000000003</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:6">
+    <row r="16" spans="1:6" ht="15" customHeight="1">
       <c r="A16" s="6">
         <v>20</v>
       </c>
@@ -6579,19 +5952,19 @@
         <v>40</v>
       </c>
       <c r="C16" s="6">
-        <v>1.60739</v>
+        <v>1.6073900000000001</v>
       </c>
       <c r="D16" s="6">
-        <v>4.31722</v>
+        <v>4.3172199999999998</v>
       </c>
       <c r="E16" s="6">
-        <v>92.0964</v>
+        <v>92.096400000000003</v>
       </c>
       <c r="F16" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:6">
+    <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="6">
         <v>21</v>
       </c>
@@ -6599,19 +5972,19 @@
         <v>0</v>
       </c>
       <c r="C17" s="6">
-        <v>1.60739</v>
+        <v>1.6073900000000001</v>
       </c>
       <c r="D17" s="6">
-        <v>4.31722</v>
+        <v>4.3172199999999998</v>
       </c>
       <c r="E17" s="6">
-        <v>74.71195</v>
+        <v>74.711950000000002</v>
       </c>
       <c r="F17" s="6">
-        <v>17.38445</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:6">
+        <v>17.384450000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="6">
         <v>22</v>
       </c>
@@ -6619,19 +5992,19 @@
         <v>0</v>
       </c>
       <c r="C18" s="6">
-        <v>1.60739</v>
+        <v>1.6073900000000001</v>
       </c>
       <c r="D18" s="6">
-        <v>4.31722</v>
+        <v>4.3172199999999998</v>
       </c>
       <c r="E18" s="6">
-        <v>74.71195</v>
+        <v>74.711950000000002</v>
       </c>
       <c r="F18" s="6">
-        <v>17.38445</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:6">
+        <v>17.384450000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1">
       <c r="A19" s="6">
         <v>23</v>
       </c>
@@ -6639,19 +6012,19 @@
         <v>0</v>
       </c>
       <c r="C19" s="6">
-        <v>1.60739</v>
+        <v>1.6073900000000001</v>
       </c>
       <c r="D19" s="6">
-        <v>4.31722</v>
+        <v>4.3172199999999998</v>
       </c>
       <c r="E19" s="6">
-        <v>74.71195</v>
+        <v>74.711950000000002</v>
       </c>
       <c r="F19" s="6">
-        <v>17.38445</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:6">
+        <v>17.384450000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="6">
         <v>24</v>
       </c>
@@ -6659,67 +6032,65 @@
         <v>0</v>
       </c>
       <c r="C20" s="6">
-        <v>1.60739</v>
+        <v>1.6073900000000001</v>
       </c>
       <c r="D20" s="6">
-        <v>4.31722</v>
+        <v>4.3172199999999998</v>
       </c>
       <c r="E20" s="6">
-        <v>74.71195</v>
+        <v>74.711950000000002</v>
       </c>
       <c r="F20" s="6">
-        <v>17.38445</v>
+        <v>17.384450000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="10.5583333333333" customWidth="1"/>
+    <col min="1" max="26" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:10">
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>15</v>
       </c>
@@ -6730,7 +6101,7 @@
         <v>4.68</v>
       </c>
       <c r="D2" s="5">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E2" s="5">
         <v>0.44</v>
@@ -6742,7 +6113,7 @@
         <v>6.04</v>
       </c>
       <c r="H2" s="5">
-        <v>34.09</v>
+        <v>34.090000000000003</v>
       </c>
       <c r="I2" s="5">
         <v>9.68</v>
@@ -6751,7 +6122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:10">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <v>25</v>
       </c>
@@ -6759,7 +6130,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="5">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D3" s="5">
         <v>0.05</v>
@@ -6783,7 +6154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:10">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <v>35</v>
       </c>
@@ -6803,7 +6174,7 @@
         <v>91.11</v>
       </c>
       <c r="G4" s="5">
-        <v>20.42</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="H4" s="5">
         <v>1.25</v>
@@ -6815,7 +6186,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:10">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <v>45</v>
       </c>
@@ -6847,7 +6218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:10">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>55</v>
       </c>
@@ -6879,28 +6250,28 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1" spans="1:1">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:1">
-      <c r="A9" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:1">
-      <c r="A10" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -7887,54 +7258,52 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="10.5583333333333" customWidth="1"/>
+    <col min="1" max="26" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:10">
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>15</v>
       </c>
@@ -7954,7 +7323,7 @@
         <v>57.24</v>
       </c>
       <c r="G2" s="5">
-        <v>8.03</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="H2" s="5">
         <v>41.59</v>
@@ -7966,7 +7335,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:10">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <v>25</v>
       </c>
@@ -7998,7 +7367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:10">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <v>35</v>
       </c>
@@ -8030,7 +7399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:10">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <v>45</v>
       </c>
@@ -8062,7 +7431,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:10">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>55</v>
       </c>
@@ -8094,28 +7463,28 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1" spans="1:1">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:1">
-      <c r="A9" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:1">
-      <c r="A10" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -9102,47 +8471,43 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.1083333333333" customWidth="1"/>
-    <col min="2" max="26" width="10.5583333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.09765625" customWidth="1"/>
+    <col min="2" max="26" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -9150,15 +8515,15 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -9166,15 +8531,15 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -9182,15 +8547,15 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -9200,15 +8565,15 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -9218,15 +8583,15 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:6">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
@@ -9236,15 +8601,15 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:6">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2">
         <v>3</v>
@@ -9254,7 +8619,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:6">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -9262,7 +8627,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:6">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -9270,12 +8635,12 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -10262,7 +9627,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>